--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_14.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_14.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_0</t>
+          <t>model_1_14_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.979614396639455</v>
+        <v>0.9098528564335124</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7260785619085445</v>
+        <v>0.7641791499420096</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7197655082367893</v>
+        <v>0.6539533026350388</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9923147272871782</v>
+        <v>0.8453339744097427</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08555401636427046</v>
+        <v>0.378328277043125</v>
       </c>
       <c r="G2" t="n">
-        <v>1.831713917809809</v>
+        <v>1.576935110192952</v>
       </c>
       <c r="H2" t="n">
-        <v>1.002382528107567</v>
+        <v>1.237788971534094</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02129166298950144</v>
+        <v>0.555431455942119</v>
       </c>
       <c r="J2" t="n">
-        <v>0.304970673903792</v>
+        <v>1.798502919619495</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2924961817943449</v>
+        <v>0.6150839593446776</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01193303611349</v>
+        <v>0.6909240792006142</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3049483498038972</v>
+        <v>0.6412693568933052</v>
       </c>
       <c r="N2" t="n">
-        <v>134.9172146643599</v>
+        <v>35.94398600493555</v>
       </c>
       <c r="O2" t="n">
-        <v>214.1441432807929</v>
+        <v>56.66487502769495</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_1</t>
+          <t>model_1_14_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9799292243037016</v>
+        <v>0.9102402922196576</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7259961612213771</v>
+        <v>0.7638920847343444</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7195520170548335</v>
+        <v>0.6541347022611133</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9917783714123856</v>
+        <v>0.8487380050843742</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08423275200615983</v>
+        <v>0.3767022919299188</v>
       </c>
       <c r="G3" t="n">
-        <v>1.832264931584318</v>
+        <v>1.578854716558422</v>
       </c>
       <c r="H3" t="n">
-        <v>1.003146173686493</v>
+        <v>1.23714011558978</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02277761006714689</v>
+        <v>0.5432070148829613</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3040148567741834</v>
+        <v>1.7996900036599</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2902287925174893</v>
+        <v>0.6137607774450228</v>
       </c>
       <c r="L3" t="n">
-        <v>1.011748746749053</v>
+        <v>0.6922524304673976</v>
       </c>
       <c r="M3" t="n">
-        <v>0.302584433071383</v>
+        <v>0.639889844400818</v>
       </c>
       <c r="N3" t="n">
-        <v>134.9483429093419</v>
+        <v>35.95260016014277</v>
       </c>
       <c r="O3" t="n">
-        <v>214.175271525775</v>
+        <v>56.67348918290217</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_2</t>
+          <t>model_1_14_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9802337257537642</v>
+        <v>0.9106264598068304</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7259117204232559</v>
+        <v>0.7635899939744449</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7193358702220347</v>
+        <v>0.6543090214932934</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9912220528763794</v>
+        <v>0.8521609113555566</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08295482455996878</v>
+        <v>0.3750816291765035</v>
       </c>
       <c r="G4" t="n">
-        <v>1.832829587590168</v>
+        <v>1.58087479886087</v>
       </c>
       <c r="H4" t="n">
-        <v>1.003919318374501</v>
+        <v>1.236516585803882</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02431886269747862</v>
+        <v>0.5309147884130521</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3041101024768533</v>
+        <v>1.800932058240606</v>
       </c>
       <c r="K4" t="n">
-        <v>0.288018792025744</v>
+        <v>0.612439082012655</v>
       </c>
       <c r="L4" t="n">
-        <v>1.011570501997797</v>
+        <v>0.6935764336234187</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3002803482833725</v>
+        <v>0.6385118816576075</v>
       </c>
       <c r="N4" t="n">
-        <v>134.978918203542</v>
+        <v>35.96122319779219</v>
       </c>
       <c r="O4" t="n">
-        <v>214.205846819975</v>
+        <v>56.68211222055159</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_3</t>
+          <t>model_1_14_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9805281540665347</v>
+        <v>0.9110109662723058</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7258251828268998</v>
+        <v>0.7632721759855119</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7191173631463577</v>
+        <v>0.6544761346827377</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9906462899967143</v>
+        <v>0.8556018538026524</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08171917191612164</v>
+        <v>0.3734679377955011</v>
       </c>
       <c r="G5" t="n">
-        <v>1.83340826489547</v>
+        <v>1.583000049216283</v>
       </c>
       <c r="H5" t="n">
-        <v>1.004700905514429</v>
+        <v>1.235918831615018</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02591398490768238</v>
+        <v>0.5185577910316969</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3043931463689903</v>
+        <v>1.802176904049088</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2858656536139339</v>
+        <v>0.6111202318656298</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01139815371715</v>
+        <v>0.6948947415050486</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2980355463117606</v>
+        <v>0.6371368853294274</v>
       </c>
       <c r="N5" t="n">
-        <v>135.0089332845381</v>
+        <v>35.96984624135256</v>
       </c>
       <c r="O5" t="n">
-        <v>214.2358619009712</v>
+        <v>56.69073526411196</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_4</t>
+          <t>model_1_14_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9808127979697785</v>
+        <v>0.9113935844483276</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7257367419023588</v>
+        <v>0.7629378810387386</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7188965021767226</v>
+        <v>0.6546354193506179</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9900519451493343</v>
+        <v>0.8590602028938321</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08052458234595262</v>
+        <v>0.3718621711613876</v>
       </c>
       <c r="G6" t="n">
-        <v>1.83399966976511</v>
+        <v>1.585235481064643</v>
       </c>
       <c r="H6" t="n">
-        <v>1.005490912396559</v>
+        <v>1.235349079593867</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02756058752841336</v>
+        <v>0.506138283492537</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3047007201628164</v>
+        <v>1.803424901171487</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2837685365680146</v>
+        <v>0.6098050271696582</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01123153289574</v>
+        <v>0.6962065752514091</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2958491506515658</v>
+        <v>0.6357656896466992</v>
       </c>
       <c r="N6" t="n">
-        <v>135.0383855408332</v>
+        <v>35.97846400198916</v>
       </c>
       <c r="O6" t="n">
-        <v>214.2653141572663</v>
+        <v>56.69935302474857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_5</t>
+          <t>model_1_14_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9810877809487024</v>
+        <v>0.9117739614184599</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7256464374099666</v>
+        <v>0.7625862741272509</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7186733341065684</v>
+        <v>0.6547866536349863</v>
       </c>
       <c r="E7" t="n">
-        <v>0.989439756679476</v>
+        <v>0.8625348736469066</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07937053760846476</v>
+        <v>0.370265810388948</v>
       </c>
       <c r="G7" t="n">
-        <v>1.83460353632155</v>
+        <v>1.587586678100762</v>
       </c>
       <c r="H7" t="n">
-        <v>1.006289171643473</v>
+        <v>1.234808123327749</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02925662501118641</v>
+        <v>0.4936601621473072</v>
       </c>
       <c r="J7" t="n">
-        <v>0.305030104765424</v>
+        <v>1.804676463699753</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2817277721639539</v>
+        <v>0.6084947085956853</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01107056724954</v>
+        <v>0.697510724863291</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2937215066818596</v>
+        <v>0.6343995880982989</v>
       </c>
       <c r="N7" t="n">
-        <v>135.0672560849112</v>
+        <v>35.98706824963529</v>
       </c>
       <c r="O7" t="n">
-        <v>214.2941847013442</v>
+        <v>56.70795727239469</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_6</t>
+          <t>model_1_14_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9813534681706119</v>
+        <v>0.9121517328310809</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7255543605983215</v>
+        <v>0.7622165375924128</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7184476994269238</v>
+        <v>0.6549290362209387</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9888104771072193</v>
+        <v>0.8660241038856721</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07825550517459461</v>
+        <v>0.3686803845839956</v>
       </c>
       <c r="G8" t="n">
-        <v>1.835219254384996</v>
+        <v>1.590059108011705</v>
       </c>
       <c r="H8" t="n">
-        <v>1.007096253809511</v>
+        <v>1.234298829073614</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03100001253682578</v>
+        <v>0.4811297552642273</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3053796456641305</v>
+        <v>1.805931228913663</v>
       </c>
       <c r="K8" t="n">
-        <v>0.279741854527696</v>
+        <v>0.6071905669425338</v>
       </c>
       <c r="L8" t="n">
-        <v>1.010915043022081</v>
+        <v>0.6988059411351344</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2916510444204098</v>
+        <v>0.6330399264350273</v>
       </c>
       <c r="N8" t="n">
-        <v>135.0955521967353</v>
+        <v>35.9956503534391</v>
       </c>
       <c r="O8" t="n">
-        <v>214.3224808131683</v>
+        <v>56.7165393761985</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_7</t>
+          <t>model_1_14_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9816099724449597</v>
+        <v>0.9125264572507987</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7254605449578124</v>
+        <v>0.7618278216859855</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7182200380004573</v>
+        <v>0.6550618197198376</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9881646698133691</v>
+        <v>0.8695266804483431</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07717901160720142</v>
+        <v>0.3671077463564376</v>
       </c>
       <c r="G9" t="n">
-        <v>1.835846600005061</v>
+        <v>1.592658453067856</v>
       </c>
       <c r="H9" t="n">
-        <v>1.007910585531413</v>
+        <v>1.233823870197282</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03278918928703757</v>
+        <v>0.4685514195093087</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3057523798387379</v>
+        <v>1.807187184575882</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2778111077822509</v>
+        <v>0.6058941709213232</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01076489417856</v>
+        <v>0.7000907105741672</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2896381017888144</v>
+        <v>0.6316883401512841</v>
       </c>
       <c r="N9" t="n">
-        <v>135.1232554585758</v>
+        <v>36.00419977442692</v>
       </c>
       <c r="O9" t="n">
-        <v>214.3501840750088</v>
+        <v>56.72508879718632</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_8</t>
+          <t>model_1_14_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9818576330202659</v>
+        <v>0.9128975157906617</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7253650324400012</v>
+        <v>0.7614191755832611</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7179900018561212</v>
+        <v>0.6551845686328148</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9875031674377003</v>
+        <v>0.8730403930414542</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07613963315281946</v>
+        <v>0.3655504930424158</v>
       </c>
       <c r="G10" t="n">
-        <v>1.836485292651459</v>
+        <v>1.595391071438416</v>
       </c>
       <c r="H10" t="n">
-        <v>1.008733411481442</v>
+        <v>1.233384804452953</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03462184847504507</v>
+        <v>0.4559330924144874</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3061386924004348</v>
+        <v>1.808449438767653</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2759341101654876</v>
+        <v>0.6046077183119777</v>
       </c>
       <c r="L10" t="n">
-        <v>1.010619922134478</v>
+        <v>0.7013629112822687</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2876811964975848</v>
+        <v>0.6303471205910347</v>
       </c>
       <c r="N10" t="n">
-        <v>135.1503726922012</v>
+        <v>36.01270172294995</v>
       </c>
       <c r="O10" t="n">
-        <v>214.3773013086343</v>
+        <v>56.73359074570936</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_9</t>
+          <t>model_1_14_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9820965842885323</v>
+        <v>0.9132646352875922</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7252679534679516</v>
+        <v>0.7609896000380536</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7177577376448732</v>
+        <v>0.6552967411790758</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9868263637549776</v>
+        <v>0.8765636626698022</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07513680579696611</v>
+        <v>0.3640097710489318</v>
       </c>
       <c r="G11" t="n">
-        <v>1.837134460184563</v>
+        <v>1.598263645087232</v>
       </c>
       <c r="H11" t="n">
-        <v>1.009564207097623</v>
+        <v>1.232983569759116</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03649689916759161</v>
+        <v>0.4432804444145039</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3065487988693586</v>
+        <v>1.809712701462179</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2741109370254425</v>
+        <v>0.6033322227835438</v>
       </c>
       <c r="L11" t="n">
-        <v>1.010480048221347</v>
+        <v>0.7026216067003159</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2857804071024793</v>
+        <v>0.6290173245773157</v>
       </c>
       <c r="N11" t="n">
-        <v>135.1768894995233</v>
+        <v>36.02114913632931</v>
       </c>
       <c r="O11" t="n">
-        <v>214.4038181159563</v>
+        <v>56.74203815908872</v>
       </c>
     </row>
   </sheetData>
